--- a/statistics/R/roiObjectLvl_Within-PLI_theta/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_theta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019386755120450905</v>
+        <v>0.01777119219374651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0385165412833397</v>
+        <v>0.03530682950972808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02951733202950102</v>
+        <v>0.02705755436037599</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0156525324227188</v>
+        <v>0.014348154720825457</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.024361152563792343</v>
+        <v>-0.02233105651680961</v>
       </c>
       <c r="H2" t="n">
-        <v>0.011667304741742879</v>
+        <v>0.010695029346597718</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.049549507989405606</v>
+        <v>0.04542038232362178</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02358988391140382</v>
+        <v>-0.02162406025212016</v>
       </c>
       <c r="E3" t="n">
-        <v>0.010562248614860992</v>
+        <v>0.009682061230289252</v>
       </c>
       <c r="F3" t="n">
-        <v>7.584061292500999E-4</v>
+        <v>6.952056184792443E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.011804194668644796</v>
+        <v>0.010820511779591091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.019726641089831465</v>
+        <v>0.018082754332345685</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.010766329820038334</v>
+        <v>-0.009869135668368445</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0010075301183507523</v>
+        <v>-9.235692751549118E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02697027525402812</v>
+        <v>0.024722752316192476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004554892236051655</v>
+        <v>0.004175317883047258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005120398713076069</v>
+        <v>0.004693698820319725</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01728819120123476</v>
+        <v>0.01584750860113182</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009038586057219689</v>
+        <v>0.008285370552451266</v>
       </c>
       <c r="D5" t="n">
-        <v>5.213215028761486E-4</v>
+        <v>4.778780443031594E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004843591968373362</v>
+        <v>-0.004439959304342045</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.009341010329152633</v>
+        <v>-0.008562592801723168</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.005258040304395917</v>
+        <v>-0.00481987027902947</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.039907718587095575</v>
+        <v>-0.036582075371504263</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.006369223760528064</v>
+        <v>-0.005838455113817365</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01927349700841985</v>
+        <v>-0.01766737225771825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02733033325918699</v>
+        <v>0.025052805487588148</v>
       </c>
       <c r="F6" t="n">
-        <v>0.016699020407460352</v>
+        <v>0.01530743537350543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.015840289753333125</v>
+        <v>0.014520265607222083</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.007299742806989196</v>
+        <v>-0.006691430906406726</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0025113602753354947</v>
+        <v>-0.0023020802523908146</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.011621121479294116</v>
+        <v>-0.010652694689352815</v>
       </c>
       <c r="E7" t="n">
-        <v>0.021429390994608444</v>
+        <v>0.0196436084117243</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01549859733089548</v>
+        <v>-0.014207047553320862</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05146812512883947</v>
+        <v>-0.04717911470143615</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.009429775423564268</v>
+        <v>-0.008643960804933959</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.019802918140513992</v>
+        <v>0.01815267496213796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009276485725761119</v>
+        <v>0.00850344524861435</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.003678583129928914</v>
+        <v>-0.003372034535768176</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009327695921898749</v>
+        <v>-0.008550387928407177</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.017194511604449514</v>
+        <v>-0.01576163563741212</v>
       </c>
       <c r="H8" t="n">
-        <v>0.027697284264313338</v>
+        <v>0.02538917724228712</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.8631639185001658E-4</v>
+        <v>-1.7079002586256609E-4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.031501609101288575</v>
+        <v>0.028876475009514402</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03737944652848163</v>
+        <v>0.03426449265110826</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.012836414026890286</v>
+        <v>-0.011766712857982808</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005570675589275931</v>
+        <v>0.0051064526235027885</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00103336220803818</v>
+        <v>9.472486907016187E-4</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0013932582255565262</v>
+        <v>0.0012771533734267093</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0033903929784936393</v>
+        <v>-0.003107860230285975</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0063073963695081114</v>
+        <v>-0.005781780005382486</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.045632429519897655</v>
+        <v>-0.04182972705990606</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005006582905133616</v>
+        <v>0.0045893676630391345</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.026782017154687976</v>
+        <v>-0.024550182391797237</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.013842719277501858</v>
+        <v>-0.012689159337710199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01605545484264015</v>
+        <v>0.014717500272420192</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.017192234583538968</v>
+        <v>-0.01575954836824406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003013791600748106</v>
+        <v>0.0027626423006856804</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01942248572683347</v>
+        <v>0.017803945249597386</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005820735893199536</v>
+        <v>0.005335674568766269</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.027576288445853747</v>
+        <v>0.025278264408699125</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003631818797202757</v>
+        <v>-0.0033291672307690923</v>
       </c>
       <c r="E12" t="n">
-        <v>0.024055199831597318</v>
+        <v>0.022050599845630847</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008627417404795612</v>
+        <v>0.007908465954395927</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00969125412645272</v>
+        <v>-0.00888364961591509</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0016191537930668742</v>
+        <v>-0.0014842243103112551</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.038338557754155E-6</v>
+        <v>-8.285143677844165E-6</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02718359946620824</v>
+        <v>-0.024918299510690745</v>
       </c>
       <c r="E13" t="n">
-        <v>0.022997876773620474</v>
+        <v>0.021081387042485467</v>
       </c>
       <c r="F13" t="n">
-        <v>0.015037800363887355</v>
+        <v>0.01378465033356352</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.002730629542223806</v>
+        <v>-0.0025030770803717295</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006944343900865568</v>
+        <v>0.006365648575793359</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0041623720195149705</v>
+        <v>0.003815507684555297</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.005532376909188452</v>
+        <v>-0.005071345500089475</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00484843155650605</v>
+        <v>-0.004444395593463879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002576346566116383</v>
+        <v>0.002361651018940092</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006685115380767492</v>
+        <v>-0.006128022432370206</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.01404898473409677</v>
+        <v>-0.012878236006255428</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03924878628435946</v>
+        <v>0.035978054093996126</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004391131202725385</v>
+        <v>0.004025203602498251</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.009198886544424356</v>
+        <v>-0.008432312665722308</v>
       </c>
       <c r="F15" t="n">
-        <v>0.012372673127821865</v>
+        <v>0.011341617033836793</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008595073754338933</v>
+        <v>0.007878817608144018</v>
       </c>
       <c r="H15" t="n">
-        <v>0.018660681393600775</v>
+        <v>0.01710562461080073</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0017767390955795714</v>
+        <v>-0.0016286775042814172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005920433494804034</v>
+        <v>0.00542706403690385</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.024000306609002264</v>
+        <v>-0.02200028105825208</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.002654032974398979</v>
+        <v>-0.0024328635598658277</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0010355820632499957</v>
+        <v>-9.492835579791858E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.013127253536460659</v>
+        <v>0.012033315741755535</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0411769524088364</v>
+        <v>0.03774553970810013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005046047265726938</v>
+        <v>0.004625543326916393</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.014598731990036251</v>
+        <v>-0.013382170990866749</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0036731123687646083</v>
+        <v>-0.0033670196713674883</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02566965610443872</v>
+        <v>-0.023530518095735586</v>
       </c>
       <c r="H17" t="n">
-        <v>0.013461513461513364</v>
+        <v>0.012339720673053889</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0024250899536941706</v>
+        <v>0.002222999124219638</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006714956976480446</v>
+        <v>0.00615537722844034</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0030909304140335214</v>
+        <v>0.0028333528795307927</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.007861325636261685</v>
+        <v>-0.00720621516657316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.013709982602322146</v>
+        <v>0.012567484052128652</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.019055212481713435</v>
+        <v>-0.017467278108237394</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.012731002223755894</v>
+        <v>-0.011670085371776218</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.011023294585460808</v>
+        <v>-0.010104686703339083</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008384631573037371</v>
+        <v>0.007685912275284312</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002409437528565206</v>
+        <v>0.0022086510678514526</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02005831757384552</v>
+        <v>-0.01838679110935848</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.030238267264915242</v>
+        <v>-0.02771841165950567</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0032460982771541635</v>
+        <v>-0.0029755900873912333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002723554783051474</v>
+        <v>0.002496591884463828</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.021673441963296958</v>
+        <v>-0.019867321799688975</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008870924471947428</v>
+        <v>-0.008131680765951721</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02737922303139695</v>
+        <v>0.025097621112113944</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.006256178360672382</v>
+        <v>-0.0057348301639496</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.031930292799857984</v>
+        <v>-0.02926943506653651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.023566547021924622</v>
+        <v>0.021602668103430922</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.019907867733954754</v>
+        <v>-0.018248878756125242</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.016200322264395606</v>
+        <v>-0.014850295409029268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.019548253043676245</v>
+        <v>0.017919231956703308</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.02658372223589628</v>
+        <v>-0.02436841204957152</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.009055365193472553</v>
+        <v>-0.008300751427349928</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0017345862001659218</v>
+        <v>0.0015900373501521181</v>
       </c>
       <c r="E22" t="n">
-        <v>0.013992563029124216</v>
+        <v>0.012826516110030606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.015412960829571387</v>
+        <v>0.014128547427107119</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008260062918447997</v>
+        <v>0.007571724341910668</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0036448079926341137</v>
+        <v>-0.003341073993247845</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.008347727550626072</v>
+        <v>-0.007652083588073844</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.029111712341525986</v>
+        <v>-0.026685736313065478</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028004125258129786</v>
+        <v>0.02567044815328573</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02171828258784786</v>
+        <v>0.0199084257055272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.038221399205380924</v>
+        <v>0.03503628260493247</v>
       </c>
       <c r="H23" t="n">
-        <v>0.012570673855839987</v>
+        <v>0.011523117701186747</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.011262533001663466</v>
+        <v>0.010323988584858057</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.008365179894546715</v>
+        <v>-0.007668081570001206</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.009854879420096718</v>
+        <v>-0.009033639468422061</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.024297403588021627</v>
+        <v>-0.022272619955686468</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02086848654354384</v>
+        <v>-0.019129445998248396</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.002991922900389743</v>
+        <v>-0.0027425959920238663</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0122962094476336</v>
+        <v>-0.011271525326997434</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01170509866162045</v>
+        <v>-0.010729673773152093</v>
       </c>
       <c r="E25" t="n">
-        <v>0.020826252051548422</v>
+        <v>0.019090731047252785</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02216134824830479</v>
+        <v>-0.02031456922761271</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.011597163319354287</v>
+        <v>-0.010630733042741425</v>
       </c>
       <c r="H25" t="n">
-        <v>0.025622310269049375</v>
+        <v>0.02348711774662865</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.02861384173359749</v>
+        <v>-0.02622935492246442</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.006242137919156676</v>
+        <v>-0.005721959759226791</v>
       </c>
       <c r="E26" t="n">
-        <v>0.025506054220306773</v>
+        <v>0.023380549701947806</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001712695947944376</v>
+        <v>0.001569971285615701</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.004353603991285149</v>
+        <v>-0.003990803658678044</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.005218578428297149</v>
+        <v>-0.004783696892605771</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.018662031247843547</v>
+        <v>-0.017106861977189858</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0037176640914247105</v>
+        <v>0.00340785875047267</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03398109733513455</v>
+        <v>0.031149339223873418</v>
       </c>
       <c r="F27" t="n">
-        <v>0.011547402851750599</v>
+        <v>0.010585119280771549</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.1100011100007023E-4</v>
+        <v>-1.0175010175006438E-4</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.016046820394646555</v>
+        <v>-0.014709585361759259</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.012681607557383956</v>
+        <v>-0.011624806927601927</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.010387055969103609</v>
+        <v>-0.00952146797167841</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.009398349978060105</v>
+        <v>-0.008615154146555115</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.007540802882417874</v>
+        <v>-0.00691240264221632</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01173913910840374</v>
+        <v>-0.010760877516036771</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002453286980141134</v>
+        <v>0.0022488463984626783</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01189155365356731</v>
+        <v>0.010900590849103331</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0015707189620232653</v>
+        <v>-0.0014398257151880256</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02568494054001308</v>
+        <v>-0.02354452882834529</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0016695326629369012</v>
+        <v>0.0015304049410255205</v>
       </c>
       <c r="G29" t="n">
-        <v>0.009809018504670586</v>
+        <v>0.008991600295947977</v>
       </c>
       <c r="H29" t="n">
-        <v>0.024108806717502373</v>
+        <v>0.022099739491043935</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0069853944853944805</v>
+        <v>0.0064032782782783015</v>
       </c>
       <c r="D30" t="n">
-        <v>0.015086296064556692</v>
+        <v>0.013829104725843866</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03068982779127699</v>
+        <v>0.028132342142003885</v>
       </c>
       <c r="F30" t="n">
-        <v>0.009577201425027437</v>
+        <v>0.008779101306275183</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0041556873078610335</v>
+        <v>0.003809380032205989</v>
       </c>
       <c r="H30" t="n">
-        <v>0.045672838579017105</v>
+        <v>0.04186676869743222</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>0.002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>-0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         <v>-0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="7">
@@ -1227,7 +1227,7 @@
         <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.049549507989405606</v>
+        <v>0.04542038232362178</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0385165412833397</v>
+        <v>0.03530682950972808</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>8.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.031501609101288575</v>
+        <v>0.028876475009514402</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>9.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.045632429519897655</v>
+        <v>-0.04182972705990606</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>6.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05146812512883947</v>
+        <v>-0.04717911470143615</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1424,10 +1424,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9493091799777076</v>
+        <v>0.9493091799777073</v>
       </c>
       <c r="F2" t="n">
-        <v>0.17563207670220585</v>
+        <v>0.17563207670220207</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1444,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9693146929257116</v>
+        <v>0.9693146929257129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5412511838641589</v>
+        <v>0.5412511838641964</v>
       </c>
     </row>
     <row r="4">
@@ -1464,10 +1464,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9183500219232511</v>
+        <v>0.9183500219232509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.027699268141032046</v>
+        <v>0.027699268141031633</v>
       </c>
     </row>
     <row r="5">
@@ -1484,10 +1484,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.947049576333674</v>
+        <v>0.9470495763336741</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15336068736997654</v>
+        <v>0.15336068736997716</v>
       </c>
     </row>
     <row r="6">
@@ -1504,10 +1504,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9798671294831979</v>
+        <v>0.9798671294831988</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8347602951810772</v>
+        <v>0.8347602951810984</v>
       </c>
     </row>
     <row r="7">
@@ -1524,10 +1524,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9901133279349416</v>
+        <v>0.9901133279349412</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9926673628886655</v>
+        <v>0.992667362888664</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1717,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8952514563783159</v>
+        <v>0.8952514563783047</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1755,7 +1755,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08691213198192733</v>
+        <v>0.08691213198192943</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1793,7 +1793,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1060935109336971</v>
+        <v>1.1060935109336956</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>

--- a/statistics/R/roiObjectLvl_Within-PLI_theta/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_theta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01777119219374651</v>
+        <v>0.019386755120450905</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03530682950972808</v>
+        <v>0.0385165412833397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02705755436037599</v>
+        <v>0.02951733202950102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.014348154720825457</v>
+        <v>0.0156525324227188</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02233105651680961</v>
+        <v>-0.024361152563792343</v>
       </c>
       <c r="H2" t="n">
-        <v>0.010695029346597718</v>
+        <v>0.011667304741742879</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04542038232362178</v>
+        <v>0.049549507989405606</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02162406025212016</v>
+        <v>-0.02358988391140382</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009682061230289252</v>
+        <v>0.010562248614860992</v>
       </c>
       <c r="F3" t="n">
-        <v>6.952056184792443E-4</v>
+        <v>7.584061292500999E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.010820511779591091</v>
+        <v>0.011804194668644796</v>
       </c>
       <c r="H3" t="n">
-        <v>0.018082754332345685</v>
+        <v>0.019726641089831465</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.009869135668368445</v>
+        <v>-0.010766329820038334</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.235692751549118E-4</v>
+        <v>-0.0010075301183507523</v>
       </c>
       <c r="E4" t="n">
-        <v>0.024722752316192476</v>
+        <v>0.02697027525402812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004175317883047258</v>
+        <v>0.004554892236051655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004693698820319725</v>
+        <v>0.005120398713076069</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01584750860113182</v>
+        <v>0.01728819120123476</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008285370552451266</v>
+        <v>0.009038586057219689</v>
       </c>
       <c r="D5" t="n">
-        <v>4.778780443031594E-4</v>
+        <v>5.213215028761486E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004439959304342045</v>
+        <v>-0.004843591968373362</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.008562592801723168</v>
+        <v>-0.009341010329152633</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00481987027902947</v>
+        <v>-0.005258040304395917</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.036582075371504263</v>
+        <v>-0.039907718587095575</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.005838455113817365</v>
+        <v>-0.006369223760528064</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01766737225771825</v>
+        <v>-0.01927349700841985</v>
       </c>
       <c r="E6" t="n">
-        <v>0.025052805487588148</v>
+        <v>0.02733033325918699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01530743537350543</v>
+        <v>0.016699020407460352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.014520265607222083</v>
+        <v>0.015840289753333125</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.006691430906406726</v>
+        <v>-0.007299742806989196</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0023020802523908146</v>
+        <v>-0.0025113602753354947</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.010652694689352815</v>
+        <v>-0.011621121479294116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0196436084117243</v>
+        <v>0.021429390994608444</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.014207047553320862</v>
+        <v>-0.01549859733089548</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04717911470143615</v>
+        <v>-0.05146812512883947</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.008643960804933959</v>
+        <v>-0.009429775423564268</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01815267496213796</v>
+        <v>0.019802918140513992</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00850344524861435</v>
+        <v>0.009276485725761119</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.003372034535768176</v>
+        <v>-0.003678583129928914</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.008550387928407177</v>
+        <v>-0.009327695921898749</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01576163563741212</v>
+        <v>-0.017194511604449514</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02538917724228712</v>
+        <v>0.027697284264313338</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.7079002586256609E-4</v>
+        <v>-1.8631639185001658E-4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.028876475009514402</v>
+        <v>0.031501609101288575</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03426449265110826</v>
+        <v>0.03737944652848163</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.011766712857982808</v>
+        <v>-0.012836414026890286</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0051064526235027885</v>
+        <v>0.005570675589275931</v>
       </c>
       <c r="H9" t="n">
-        <v>9.472486907016187E-4</v>
+        <v>0.00103336220803818</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0012771533734267093</v>
+        <v>0.0013932582255565262</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003107860230285975</v>
+        <v>-0.0033903929784936393</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.005781780005382486</v>
+        <v>-0.0063073963695081114</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04182972705990606</v>
+        <v>-0.045632429519897655</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0045893676630391345</v>
+        <v>0.005006582905133616</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.024550182391797237</v>
+        <v>-0.026782017154687976</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.012689159337710199</v>
+        <v>-0.013842719277501858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.014717500272420192</v>
+        <v>0.01605545484264015</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01575954836824406</v>
+        <v>-0.017192234583538968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0027626423006856804</v>
+        <v>0.003013791600748106</v>
       </c>
       <c r="G11" t="n">
-        <v>0.017803945249597386</v>
+        <v>0.01942248572683347</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005335674568766269</v>
+        <v>0.005820735893199536</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.025278264408699125</v>
+        <v>0.027576288445853747</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0033291672307690923</v>
+        <v>-0.003631818797202757</v>
       </c>
       <c r="E12" t="n">
-        <v>0.022050599845630847</v>
+        <v>0.024055199831597318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007908465954395927</v>
+        <v>0.008627417404795612</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00888364961591509</v>
+        <v>-0.00969125412645272</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0014842243103112551</v>
+        <v>-0.0016191537930668742</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.285143677844165E-6</v>
+        <v>-9.038338557754155E-6</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.024918299510690745</v>
+        <v>-0.02718359946620824</v>
       </c>
       <c r="E13" t="n">
-        <v>0.021081387042485467</v>
+        <v>0.022997876773620474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01378465033356352</v>
+        <v>0.015037800363887355</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0025030770803717295</v>
+        <v>-0.002730629542223806</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006365648575793359</v>
+        <v>0.006944343900865568</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003815507684555297</v>
+        <v>0.0041623720195149705</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.005071345500089475</v>
+        <v>-0.005532376909188452</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.004444395593463879</v>
+        <v>-0.00484843155650605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002361651018940092</v>
+        <v>0.002576346566116383</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006128022432370206</v>
+        <v>-0.006685115380767492</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.012878236006255428</v>
+        <v>-0.01404898473409677</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.035978054093996126</v>
+        <v>0.03924878628435946</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004025203602498251</v>
+        <v>0.004391131202725385</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.008432312665722308</v>
+        <v>-0.009198886544424356</v>
       </c>
       <c r="F15" t="n">
-        <v>0.011341617033836793</v>
+        <v>0.012372673127821865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007878817608144018</v>
+        <v>0.008595073754338933</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01710562461080073</v>
+        <v>0.018660681393600775</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0016286775042814172</v>
+        <v>-0.0017767390955795714</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00542706403690385</v>
+        <v>0.005920433494804034</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02200028105825208</v>
+        <v>-0.024000306609002264</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0024328635598658277</v>
+        <v>-0.002654032974398979</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.492835579791858E-4</v>
+        <v>-0.0010355820632499957</v>
       </c>
       <c r="H16" t="n">
-        <v>0.012033315741755535</v>
+        <v>0.013127253536460659</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03774553970810013</v>
+        <v>0.0411769524088364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004625543326916393</v>
+        <v>0.005046047265726938</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.013382170990866749</v>
+        <v>-0.014598731990036251</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0033670196713674883</v>
+        <v>-0.0036731123687646083</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.023530518095735586</v>
+        <v>-0.02566965610443872</v>
       </c>
       <c r="H17" t="n">
-        <v>0.012339720673053889</v>
+        <v>0.013461513461513364</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002222999124219638</v>
+        <v>0.0024250899536941706</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00615537722844034</v>
+        <v>0.006714956976480446</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0028333528795307927</v>
+        <v>0.0030909304140335214</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00720621516657316</v>
+        <v>-0.007861325636261685</v>
       </c>
       <c r="G18" t="n">
-        <v>0.012567484052128652</v>
+        <v>0.013709982602322146</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.017467278108237394</v>
+        <v>-0.019055212481713435</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.011670085371776218</v>
+        <v>-0.012731002223755894</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.010104686703339083</v>
+        <v>-0.011023294585460808</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007685912275284312</v>
+        <v>0.008384631573037371</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0022086510678514526</v>
+        <v>0.002409437528565206</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01838679110935848</v>
+        <v>-0.02005831757384552</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02771841165950567</v>
+        <v>-0.030238267264915242</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0029755900873912333</v>
+        <v>-0.0032460982771541635</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002496591884463828</v>
+        <v>0.002723554783051474</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.019867321799688975</v>
+        <v>-0.021673441963296958</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008131680765951721</v>
+        <v>-0.008870924471947428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.025097621112113944</v>
+        <v>0.02737922303139695</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0057348301639496</v>
+        <v>-0.006256178360672382</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02926943506653651</v>
+        <v>-0.031930292799857984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.021602668103430922</v>
+        <v>0.023566547021924622</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.018248878756125242</v>
+        <v>-0.019907867733954754</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.014850295409029268</v>
+        <v>-0.016200322264395606</v>
       </c>
       <c r="G21" t="n">
-        <v>0.017919231956703308</v>
+        <v>0.019548253043676245</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.02436841204957152</v>
+        <v>-0.02658372223589628</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.008300751427349928</v>
+        <v>-0.009055365193472553</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0015900373501521181</v>
+        <v>0.0017345862001659218</v>
       </c>
       <c r="E22" t="n">
-        <v>0.012826516110030606</v>
+        <v>0.013992563029124216</v>
       </c>
       <c r="F22" t="n">
-        <v>0.014128547427107119</v>
+        <v>0.015412960829571387</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007571724341910668</v>
+        <v>0.008260062918447997</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.003341073993247845</v>
+        <v>-0.0036448079926341137</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.007652083588073844</v>
+        <v>-0.008347727550626072</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.026685736313065478</v>
+        <v>-0.029111712341525986</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02567044815328573</v>
+        <v>0.028004125258129786</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0199084257055272</v>
+        <v>0.02171828258784786</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03503628260493247</v>
+        <v>0.038221399205380924</v>
       </c>
       <c r="H23" t="n">
-        <v>0.011523117701186747</v>
+        <v>0.012570673855839987</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.010323988584858057</v>
+        <v>0.011262533001663466</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.007668081570001206</v>
+        <v>-0.008365179894546715</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.009033639468422061</v>
+        <v>-0.009854879420096718</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.022272619955686468</v>
+        <v>-0.024297403588021627</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.019129445998248396</v>
+        <v>-0.02086848654354384</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0027425959920238663</v>
+        <v>-0.002991922900389743</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.011271525326997434</v>
+        <v>-0.0122962094476336</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.010729673773152093</v>
+        <v>-0.01170509866162045</v>
       </c>
       <c r="E25" t="n">
-        <v>0.019090731047252785</v>
+        <v>0.020826252051548422</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02031456922761271</v>
+        <v>-0.02216134824830479</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.010630733042741425</v>
+        <v>-0.011597163319354287</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02348711774662865</v>
+        <v>0.025622310269049375</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.02622935492246442</v>
+        <v>-0.02861384173359749</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.005721959759226791</v>
+        <v>-0.006242137919156676</v>
       </c>
       <c r="E26" t="n">
-        <v>0.023380549701947806</v>
+        <v>0.025506054220306773</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001569971285615701</v>
+        <v>0.001712695947944376</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.003990803658678044</v>
+        <v>-0.004353603991285149</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.004783696892605771</v>
+        <v>-0.005218578428297149</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.017106861977189858</v>
+        <v>-0.018662031247843547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00340785875047267</v>
+        <v>0.0037176640914247105</v>
       </c>
       <c r="E27" t="n">
-        <v>0.031149339223873418</v>
+        <v>0.03398109733513455</v>
       </c>
       <c r="F27" t="n">
-        <v>0.010585119280771549</v>
+        <v>0.011547402851750599</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.0175010175006438E-4</v>
+        <v>-1.1100011100007023E-4</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.014709585361759259</v>
+        <v>-0.016046820394646555</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.011624806927601927</v>
+        <v>-0.012681607557383956</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.00952146797167841</v>
+        <v>-0.010387055969103609</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.008615154146555115</v>
+        <v>-0.009398349978060105</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00691240264221632</v>
+        <v>-0.007540802882417874</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.010760877516036771</v>
+        <v>-0.01173913910840374</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0022488463984626783</v>
+        <v>0.002453286980141134</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.010900590849103331</v>
+        <v>0.01189155365356731</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0014398257151880256</v>
+        <v>-0.0015707189620232653</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02354452882834529</v>
+        <v>-0.02568494054001308</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0015304049410255205</v>
+        <v>0.0016695326629369012</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008991600295947977</v>
+        <v>0.009809018504670586</v>
       </c>
       <c r="H29" t="n">
-        <v>0.022099739491043935</v>
+        <v>0.024108806717502373</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0064032782782783015</v>
+        <v>0.0069853944853944805</v>
       </c>
       <c r="D30" t="n">
-        <v>0.013829104725843866</v>
+        <v>0.015086296064556692</v>
       </c>
       <c r="E30" t="n">
-        <v>0.028132342142003885</v>
+        <v>0.03068982779127699</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008779101306275183</v>
+        <v>0.009577201425027437</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003809380032205989</v>
+        <v>0.0041556873078610335</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04186676869743222</v>
+        <v>0.045672838579017105</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>0.002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>-0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         <v>-0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="7">
@@ -1227,7 +1227,7 @@
         <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04542038232362178</v>
+        <v>0.049549507989405606</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03530682950972808</v>
+        <v>0.0385165412833397</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>8.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.028876475009514402</v>
+        <v>0.031501609101288575</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>9.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04182972705990606</v>
+        <v>-0.045632429519897655</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>6.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04717911470143615</v>
+        <v>-0.05146812512883947</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1424,10 +1424,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9493091799777073</v>
+        <v>0.9493091799777076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.17563207670220207</v>
+        <v>0.17563207670220585</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1444,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9693146929257129</v>
+        <v>0.9693146929257116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5412511838641964</v>
+        <v>0.5412511838641589</v>
       </c>
     </row>
     <row r="4">
@@ -1464,10 +1464,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9183500219232509</v>
+        <v>0.9183500219232511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.027699268141031633</v>
+        <v>0.027699268141032046</v>
       </c>
     </row>
     <row r="5">
@@ -1484,10 +1484,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9470495763336741</v>
+        <v>0.947049576333674</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15336068736997716</v>
+        <v>0.15336068736997654</v>
       </c>
     </row>
     <row r="6">
@@ -1504,10 +1504,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9798671294831988</v>
+        <v>0.9798671294831979</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8347602951810984</v>
+        <v>0.8347602951810772</v>
       </c>
     </row>
     <row r="7">
@@ -1524,10 +1524,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9901133279349412</v>
+        <v>0.9901133279349416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.992667362888664</v>
+        <v>0.9926673628886655</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1717,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8952514563783047</v>
+        <v>0.8952514563783159</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1755,7 +1755,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08691213198192943</v>
+        <v>0.08691213198192733</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1793,7 +1793,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1060935109336956</v>
+        <v>1.1060935109336971</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>
